--- a/04.tagactive/extracted_data/04.Data.xlsx
+++ b/04.tagactive/extracted_data/04.Data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Upwork\Task01\Multiple_Directories_Web_scraping\04.tagactive\extracted_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{710478B8-2407-4497-9CE6-EA2090543129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72714A01-8415-481E-AE4B-9FE6C84AC115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A4DF7F65-B4A5-4AFC-BFDC-B3C63D5F833D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="scrapedData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -22,16 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Website URL</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Visit Website URL</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>websiteUrl</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>visitWebsiteUrl</t>
   </si>
   <si>
     <t>SC2 Rhyl</t>
@@ -76,7 +76,7 @@
     <t>https://touchactive.games/</t>
   </si>
   <si>
-    <t>Centre Commercial Pontault-Combault â€“ RN 4 â€“ 77340. France</t>
+    <t>Centre Commercial Pontault-Combault – RN 4 – 77340. France</t>
   </si>
   <si>
     <t>Tag X</t>
@@ -148,7 +148,7 @@
     <t>https://www.jumphouse.de/koeln/ninja-race-arena/</t>
   </si>
   <si>
-    <t>KÃ¶hlstraÃŸe 10, 50827 KÃ¶ln, Germany</t>
+    <t>Köhlstraße 10, 50827 Köln, Germany</t>
   </si>
   <si>
     <t>Launch Warwick</t>
@@ -166,7 +166,7 @@
     <t>https://www.sevensquares.fr/activite/tag-active/</t>
   </si>
   <si>
-    <t>2 rue Ferrer, Centre Commercial STEEL 42000 Saint-Ã‰tienne, France</t>
+    <t>2 rue Ferrer, Centre Commercial STEEL 42000 Saint-Étienne, France</t>
   </si>
   <si>
     <t>Ninja TAG Ipswich</t>
@@ -218,143 +218,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,179 +242,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFDAE3F3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -543,204 +261,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -766,39 +297,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -850,7 +381,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -961,6 +492,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -969,13 +507,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1040,59 +571,45 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312F13BF-63B0-40BF-88DA-644F6AEB9BE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED10E5F-3950-425E-9532-51B929274798}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
+    <col min="3" max="3" width="69.33203125" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1106,21 +623,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1134,21 +651,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1162,21 +679,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1190,21 +707,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1218,21 +735,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1246,21 +763,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1274,21 +791,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1302,21 +819,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1330,21 +847,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1358,21 +875,21 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>